--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71528D4B-3119-4A7E-9418-DDA5618585AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21A99E-BE99-48E4-B1B8-2EF2C6166B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="3750" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Script" sheetId="1" r:id="rId1"/>
+    <sheet name="Story Script" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -670,13 +671,202 @@
   </si>
   <si>
     <t>Teacher_Joke_Talking_Sec_1</t>
+  </si>
+  <si>
+    <t>Место, где происходит действие</t>
+  </si>
+  <si>
+    <t>Tutorial</t>
+  </si>
+  <si>
+    <t>Tutorial_Begining_0</t>
+  </si>
+  <si>
+    <t>Tutorial_Elevator_0</t>
+  </si>
+  <si>
+    <t>Tutorial_First_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_First_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_First_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_First_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_5</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_6</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_7</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_8</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_9</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_10</t>
+  </si>
+  <si>
+    <t>Tutorial_Second_Room_11</t>
+  </si>
+  <si>
+    <t>ЭТО Я ДЛЯ СЕБЯ</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>2.0;2.0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Toilet_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Toilet_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Sink_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Sink_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Outside_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Asshole_Question_Outside_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Toilet_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Toilet_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Sink_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Sink_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Outside_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Dumb_Question_Outside_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Toilet_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Toilet_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Sink_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Sink_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Outside_Yes_0</t>
+  </si>
+  <si>
+    <t>Teacher_Answer_Nerd_Question_Outside_No_0</t>
+  </si>
+  <si>
+    <t>Teacher_Execute_0</t>
+  </si>
+  <si>
+    <t>Teacher_Execute_1</t>
+  </si>
+  <si>
+    <t>Teacher_Execute_2</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_First_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_First_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_5</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_6</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_7</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_8</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_9</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_10</t>
+  </si>
+  <si>
+    <t>Tutorial_Mistake_Second_Room_11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -707,6 +897,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -728,7 +926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1008,11 +1206,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1024,14 +1304,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1057,9 +1332,72 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1068,12 +1406,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1107,6 +1439,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1390,8 +1740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B52" sqref="B49:B52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1400,7 +1750,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1414,7 +1764,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
+      <c r="A2" s="65"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1426,531 +1776,758 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="67"/>
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="67"/>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="67"/>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="67"/>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="47"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="67"/>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="47"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="67"/>
+      <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="67"/>
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="48"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="70"/>
+      <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="50"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="70"/>
+      <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="50"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="70"/>
+      <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="15" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="73"/>
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="C19" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="9" t="s">
+      <c r="A20" s="73"/>
+      <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="73"/>
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="74"/>
+      <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="C23" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="76"/>
+      <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="C25" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="77"/>
+      <c r="B26" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="61" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="7" t="s">
+      <c r="A28" s="62"/>
+      <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30"/>
+      <c r="C28" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="62"/>
+      <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="C29" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="10" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="76"/>
+      <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
+      <c r="C33" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="61" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="27"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="36" t="s">
+      <c r="A35" s="62"/>
+      <c r="B35" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="30"/>
+      <c r="C35" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="37" t="s">
+      <c r="A36" s="63"/>
+      <c r="B36" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="32"/>
+      <c r="C36" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="C37" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="38"/>
-      <c r="B38" s="21" t="s">
+      <c r="A38" s="76"/>
+      <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
+      <c r="C38" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="38"/>
-      <c r="B39" s="21" t="s">
+      <c r="A39" s="76"/>
+      <c r="B39" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
+      <c r="C39" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="38"/>
-      <c r="B40" s="21" t="s">
+      <c r="A40" s="76"/>
+      <c r="B40" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="24" t="s">
+      <c r="A41" s="76"/>
+      <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="25"/>
-      <c r="D41" s="26"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="61" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C42" s="27"/>
-      <c r="D42" s="28"/>
+      <c r="C42" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="40"/>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="C43" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="40"/>
-      <c r="B44" s="7" t="s">
+      <c r="A44" s="62"/>
+      <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="30"/>
+      <c r="C44" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="40"/>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="62"/>
+      <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="30"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41"/>
-      <c r="B46" s="10" t="s">
+      <c r="A46" s="63"/>
+      <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="31"/>
-      <c r="D46" s="32"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
+      <c r="C47" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="38"/>
-      <c r="B48" s="21" t="s">
+      <c r="A48" s="76"/>
+      <c r="B48" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38"/>
-      <c r="B49" s="21" t="s">
+      <c r="A49" s="76"/>
+      <c r="B49" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="23"/>
+      <c r="C49" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="38"/>
-      <c r="B50" s="24" t="s">
+      <c r="A50" s="76"/>
+      <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="26"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="28"/>
+      <c r="C51" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="7" t="s">
+      <c r="A52" s="62"/>
+      <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="29"/>
-      <c r="D52" s="30"/>
+      <c r="C52" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="62"/>
+      <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="29"/>
-      <c r="D53" s="30"/>
+      <c r="C53" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41"/>
-      <c r="B54" s="10" t="s">
+      <c r="A54" s="63"/>
+      <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="31"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="34"/>
-      <c r="D55" s="35"/>
+      <c r="C55" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="38"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="76"/>
+      <c r="B56" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="22"/>
-      <c r="D56" s="23"/>
+      <c r="C56" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="38"/>
-      <c r="B57" s="24" t="s">
+      <c r="A57" s="76"/>
+      <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
+      <c r="C57" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="61" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
+      <c r="C58" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="40"/>
-      <c r="B59" s="36" t="s">
+      <c r="A59" s="62"/>
+      <c r="B59" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="30"/>
+      <c r="C59" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="41"/>
-      <c r="B60" s="37" t="s">
+      <c r="A60" s="63"/>
+      <c r="B60" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
-    </row>
-    <row r="61" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C60" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="27"/>
+    </row>
+    <row r="61" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="97" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="98" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="99" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2857,12 +3434,6 @@
     <row r="1000" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A31:A33"/>
@@ -2871,9 +3442,800 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B337C269-D4D7-4E60-AAF5-1C8ABFB41559}">
+  <dimension ref="A1:X142"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="55.7109375" style="35"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="L1" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="T1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="65"/>
+      <c r="B2" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="L2" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="80"/>
+    </row>
+    <row r="3" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="34"/>
+    </row>
+    <row r="4" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="67"/>
+      <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="67"/>
+      <c r="B5" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+    </row>
+    <row r="6" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="67"/>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+    </row>
+    <row r="7" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="67"/>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+    </row>
+    <row r="8" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="67"/>
+      <c r="B8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="67"/>
+      <c r="B9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+    </row>
+    <row r="10" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="67"/>
+      <c r="B10" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+    </row>
+    <row r="11" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="67"/>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+    </row>
+    <row r="12" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="68"/>
+      <c r="B12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+    </row>
+    <row r="13" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="48"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+    </row>
+    <row r="14" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="70"/>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+    </row>
+    <row r="15" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="70"/>
+      <c r="B15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+    </row>
+    <row r="16" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="70"/>
+      <c r="B16" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="49"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+    </row>
+    <row r="17" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+    </row>
+    <row r="18" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="52"/>
+      <c r="B18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+    </row>
+    <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+    </row>
+    <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="55"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+    </row>
+    <row r="21" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="56"/>
+      <c r="B21" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+    </row>
+    <row r="22" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="56"/>
+      <c r="B22" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="57"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+    </row>
+    <row r="23" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="57"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="57"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D25" s="57"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+    </row>
+    <row r="26" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" s="57"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+    </row>
+    <row r="27" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="56"/>
+      <c r="B27" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="57"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="56"/>
+      <c r="B28" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+    </row>
+    <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="56"/>
+      <c r="B29" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="50"/>
+    </row>
+    <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="56"/>
+      <c r="B30" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+    </row>
+    <row r="31" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="34"/>
+      <c r="B31" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C31" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+    </row>
+    <row r="32" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="34"/>
+      <c r="B32" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="34"/>
+      <c r="B33" s="35" t="s">
+        <v>139</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+    </row>
+    <row r="34" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="56"/>
+      <c r="B34" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
+    </row>
+    <row r="35" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="56"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
+    <row r="36" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="37" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="34"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="50"/>
+    </row>
+    <row r="38" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+    </row>
+    <row r="39" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="34"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+    </row>
+    <row r="40" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+    </row>
+    <row r="41" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="34"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="50"/>
+    </row>
+    <row r="42" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+    </row>
+    <row r="43" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+    </row>
+    <row r="44" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+    </row>
+    <row r="45" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+    </row>
+    <row r="46" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+    </row>
+    <row r="47" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="34"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+    </row>
+    <row r="48" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="34"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="50"/>
+      <c r="F48" s="50"/>
+    </row>
+    <row r="49" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="34"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="50"/>
+      <c r="F49" s="50"/>
+    </row>
+    <row r="50" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="34"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+    </row>
+    <row r="51" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="56"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="50"/>
+      <c r="F51" s="50"/>
+    </row>
+    <row r="52" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="56"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+    </row>
+    <row r="53" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="56"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="50"/>
+    </row>
+    <row r="54" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+    </row>
+    <row r="55" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="34"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+    </row>
+    <row r="56" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="34"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+    </row>
+    <row r="57" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="34"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="50"/>
+      <c r="F57" s="50"/>
+    </row>
+    <row r="58" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="50"/>
+      <c r="F58" s="50"/>
+    </row>
+    <row r="59" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="56"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+    </row>
+    <row r="60" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="56"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="50"/>
+    </row>
+    <row r="61" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="56"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
+      <c r="E61" s="50"/>
+      <c r="F61" s="50"/>
+    </row>
+    <row r="62" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="34"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+    </row>
+    <row r="63" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="34"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+    </row>
+    <row r="64" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="34"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+    </row>
+    <row r="65" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="34"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+    </row>
+    <row r="66" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="34"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+    </row>
+    <row r="89" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="63.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="L2:X2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF21A99E-BE99-48E4-B1B8-2EF2C6166B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230A9AC-3CB1-4477-82E2-6A19DC25DCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -1292,7 +1292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1398,6 +1398,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,6 +1409,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1440,15 +1449,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,6 +1457,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1741,7 +1744,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1750,7 +1753,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1776,7 +1779,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1788,7 +1791,7 @@
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1798,7 +1801,7 @@
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1808,7 +1811,7 @@
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -1818,7 +1821,7 @@
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1826,7 +1829,7 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1834,7 +1837,7 @@
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1845,7 @@
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1850,7 +1853,7 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1858,7 +1861,7 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1866,7 +1869,7 @@
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="72" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1878,7 +1881,7 @@
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
@@ -1888,7 +1891,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
@@ -1898,7 +1901,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1906,7 +1909,7 @@
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1914,7 +1917,7 @@
       <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="75" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -1926,7 +1929,7 @@
       <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="73"/>
+      <c r="A19" s="76"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
@@ -1936,7 +1939,7 @@
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="73"/>
+      <c r="A20" s="76"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
@@ -1946,7 +1949,7 @@
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="73"/>
+      <c r="A21" s="76"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
+      <c r="A22" s="77"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1962,7 +1965,7 @@
       <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="75" t="s">
+      <c r="A23" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -1974,7 +1977,7 @@
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="76"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
@@ -1984,7 +1987,7 @@
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="76"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
@@ -1994,7 +1997,7 @@
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="19" t="s">
         <v>43</v>
       </c>
@@ -2002,7 +2005,7 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="61" t="s">
+      <c r="A27" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -2014,7 +2017,7 @@
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
@@ -2024,7 +2027,7 @@
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
@@ -2034,7 +2037,7 @@
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
@@ -2042,7 +2045,7 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="65" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -2054,7 +2057,7 @@
       <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="76"/>
+      <c r="A32" s="61"/>
       <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
@@ -2064,7 +2067,7 @@
       <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
@@ -2074,7 +2077,7 @@
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
+      <c r="A34" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -2086,7 +2089,7 @@
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="31" t="s">
         <v>52</v>
       </c>
@@ -2096,7 +2099,7 @@
       <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="32" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +2109,7 @@
       <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="75" t="s">
+      <c r="A37" s="65" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="28" t="s">
@@ -2118,7 +2121,7 @@
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="76"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
@@ -2128,7 +2131,7 @@
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="76"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="16" t="s">
         <v>56</v>
       </c>
@@ -2138,7 +2141,7 @@
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="76"/>
+      <c r="A40" s="61"/>
       <c r="B40" s="16" t="s">
         <v>57</v>
       </c>
@@ -2146,7 +2149,7 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="76"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
@@ -2154,7 +2157,7 @@
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -2166,7 +2169,7 @@
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="62"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
@@ -2176,7 +2179,7 @@
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="62"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
@@ -2186,7 +2189,7 @@
       <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="62"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
@@ -2194,7 +2197,7 @@
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2202,7 +2205,7 @@
       <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="76" t="s">
+      <c r="A47" s="61" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="28" t="s">
@@ -2214,7 +2217,7 @@
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="76"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="16" t="s">
         <v>65</v>
       </c>
@@ -2224,7 +2227,7 @@
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="76"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="16" t="s">
         <v>74</v>
       </c>
@@ -2234,7 +2237,7 @@
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="76"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
@@ -2242,7 +2245,7 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -2254,7 +2257,7 @@
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="62"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
@@ -2264,7 +2267,7 @@
       <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="62"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
@@ -2274,7 +2277,7 @@
       <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="63"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
@@ -2282,7 +2285,7 @@
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="76" t="s">
+      <c r="A55" s="61" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="28" t="s">
@@ -2294,7 +2297,7 @@
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="76"/>
+      <c r="A56" s="61"/>
       <c r="B56" s="16" t="s">
         <v>69</v>
       </c>
@@ -2304,7 +2307,7 @@
       <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="76"/>
+      <c r="A57" s="61"/>
       <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
@@ -2314,7 +2317,7 @@
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -2326,7 +2329,7 @@
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="62"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="31" t="s">
         <v>72</v>
       </c>
@@ -2336,7 +2339,7 @@
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="32" t="s">
         <v>73</v>
       </c>
@@ -2349,7 +2352,7 @@
       <c r="B61" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2357,7 +2360,7 @@
       <c r="B62" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2365,7 +2368,7 @@
       <c r="B63" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2373,7 +2376,7 @@
       <c r="B64" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2381,7 +2384,7 @@
       <c r="B65" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2389,7 +2392,7 @@
       <c r="B66" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2397,15 +2400,15 @@
       <c r="B67" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C67" s="1">
-        <v>2</v>
+      <c r="C67" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2413,15 +2416,15 @@
       <c r="B69" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="1">
-        <v>2</v>
+      <c r="C69" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2429,15 +2432,15 @@
       <c r="B71" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="1">
-        <v>2</v>
+      <c r="C71" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2445,15 +2448,15 @@
       <c r="B73" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="1">
-        <v>2</v>
+      <c r="C73" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2461,15 +2464,15 @@
       <c r="B75" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C75" s="1">
-        <v>2</v>
+      <c r="C75" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2477,15 +2480,15 @@
       <c r="B77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="1">
-        <v>2</v>
+      <c r="C77" s="81" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="81" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2493,7 +2496,7 @@
       <c r="B79" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2501,7 +2504,7 @@
       <c r="B80" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2509,7 +2512,7 @@
       <c r="B81" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" s="81" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3434,6 +3437,12 @@
     <row r="1000" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A31:A33"/>
@@ -3442,12 +3451,6 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3469,7 +3472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="67" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3525,7 +3528,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
@@ -3555,7 +3558,7 @@
       <c r="X2" s="80"/>
     </row>
     <row r="3" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="69" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3570,7 +3573,7 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="67"/>
+      <c r="A4" s="70"/>
       <c r="B4" s="5" t="s">
         <v>81</v>
       </c>
@@ -3582,7 +3585,7 @@
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
+      <c r="A5" s="70"/>
       <c r="B5" s="5" t="s">
         <v>82</v>
       </c>
@@ -3594,7 +3597,7 @@
       <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="67"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="5" t="s">
         <v>83</v>
       </c>
@@ -3606,7 +3609,7 @@
       <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="67"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="5" t="s">
         <v>84</v>
       </c>
@@ -3618,7 +3621,7 @@
       <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="67"/>
+      <c r="A8" s="70"/>
       <c r="B8" s="5" t="s">
         <v>85</v>
       </c>
@@ -3630,7 +3633,7 @@
       <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="67"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="5" t="s">
         <v>127</v>
       </c>
@@ -3642,7 +3645,7 @@
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="67"/>
+      <c r="A10" s="70"/>
       <c r="B10" s="5" t="s">
         <v>128</v>
       </c>
@@ -3654,7 +3657,7 @@
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="67"/>
+      <c r="A11" s="70"/>
       <c r="B11" s="5" t="s">
         <v>86</v>
       </c>
@@ -3666,7 +3669,7 @@
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="7" t="s">
         <v>87</v>
       </c>
@@ -3678,7 +3681,7 @@
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="69"/>
+      <c r="A13" s="72"/>
       <c r="B13" s="8" t="s">
         <v>88</v>
       </c>
@@ -3690,7 +3693,7 @@
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="70"/>
+      <c r="A14" s="73"/>
       <c r="B14" s="9" t="s">
         <v>89</v>
       </c>
@@ -3702,7 +3705,7 @@
       <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="70"/>
+      <c r="A15" s="73"/>
       <c r="B15" s="9" t="s">
         <v>90</v>
       </c>
@@ -3714,7 +3717,7 @@
       <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="70"/>
+      <c r="A16" s="73"/>
       <c r="B16" s="9" t="s">
         <v>91</v>
       </c>
@@ -3726,7 +3729,7 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="10" t="s">
         <v>92</v>
       </c>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8230A9AC-3CB1-4477-82E2-6A19DC25DCB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89303F4-1B00-494B-8D2A-3466BECD071D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,60 +679,6 @@
     <t>Tutorial</t>
   </si>
   <si>
-    <t>Tutorial_Begining_0</t>
-  </si>
-  <si>
-    <t>Tutorial_Elevator_0</t>
-  </si>
-  <si>
-    <t>Tutorial_First_Room_0</t>
-  </si>
-  <si>
-    <t>Tutorial_First_Room_1</t>
-  </si>
-  <si>
-    <t>Tutorial_First_Room_2</t>
-  </si>
-  <si>
-    <t>Tutorial_First_Room_3</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_0</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_1</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_2</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_3</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_4</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_5</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_6</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_7</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_8</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_9</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_10</t>
-  </si>
-  <si>
-    <t>Tutorial_Second_Room_11</t>
-  </si>
-  <si>
     <t>ЭТО Я ДЛЯ СЕБЯ</t>
   </si>
   <si>
@@ -820,21 +766,6 @@
     <t>Teacher_Execute_2</t>
   </si>
   <si>
-    <t>Tutorial_Mistake_First_Room_0</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_First_Room_1</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_0</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_1</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_2</t>
-  </si>
-  <si>
     <t>Tutorial_Mistake_Second_Room_3</t>
   </si>
   <si>
@@ -860,6 +791,75 @@
   </si>
   <si>
     <t>Tutorial_Mistake_Second_Room_11</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Begining_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Elevator_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_5</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_6</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_7</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_8</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_9</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Room_10</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_5</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_6</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_7</t>
+  </si>
+  <si>
+    <t>Level_1_Begining_0</t>
+  </si>
+  <si>
+    <t>Level_1_Begining_1</t>
   </si>
 </sst>
 </file>
@@ -1398,6 +1398,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,9 +1460,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1753,7 +1753,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1767,7 +1767,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1779,49 +1779,49 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1837,7 +1837,7 @@
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1845,7 +1845,7 @@
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1853,7 +1853,7 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1869,39 +1869,39 @@
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="73" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1917,39 +1917,39 @@
       <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="76" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="76"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="76"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="76"/>
+      <c r="A21" s="77"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
@@ -1957,7 +1957,7 @@
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
+      <c r="A22" s="78"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
@@ -1965,39 +1965,39 @@
       <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="66" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="61"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="61"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
+      <c r="A26" s="67"/>
       <c r="B26" s="19" t="s">
         <v>43</v>
       </c>
@@ -2005,39 +2005,39 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="63" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63"/>
+      <c r="A28" s="64"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="63"/>
+      <c r="A29" s="64"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
+      <c r="A30" s="65"/>
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
@@ -2045,103 +2045,103 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="66" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="61"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="66"/>
+      <c r="A33" s="67"/>
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+      <c r="A34" s="63" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
+      <c r="A36" s="65"/>
       <c r="B36" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="61"/>
+      <c r="A38" s="62"/>
       <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61"/>
+      <c r="A39" s="62"/>
       <c r="B39" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="61"/>
+      <c r="A40" s="62"/>
       <c r="B40" s="16" t="s">
         <v>57</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="61"/>
+      <c r="A41" s="62"/>
       <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
@@ -2157,39 +2157,39 @@
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="62" t="s">
+      <c r="A42" s="63" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="63"/>
+      <c r="A43" s="64"/>
       <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="63"/>
+      <c r="A44" s="64"/>
       <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="63"/>
+      <c r="A45" s="64"/>
       <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
@@ -2197,7 +2197,7 @@
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
+      <c r="A46" s="65"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2205,39 +2205,39 @@
       <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="62" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="61"/>
+      <c r="A48" s="62"/>
       <c r="B48" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="61"/>
+      <c r="A49" s="62"/>
       <c r="B49" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="61"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
@@ -2245,39 +2245,39 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="62" t="s">
+      <c r="A51" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="63"/>
+      <c r="A52" s="64"/>
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="63"/>
+      <c r="A53" s="64"/>
       <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
+      <c r="A54" s="65"/>
       <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
@@ -2285,235 +2285,235 @@
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="62" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="61"/>
+      <c r="A56" s="62"/>
       <c r="B56" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
+      <c r="A57" s="62"/>
       <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="62" t="s">
+      <c r="A58" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63"/>
+      <c r="A59" s="64"/>
       <c r="B59" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
+      <c r="A60" s="65"/>
       <c r="B60" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D60" s="27"/>
     </row>
     <row r="61" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="81" t="s">
-        <v>101</v>
+        <v>88</v>
+      </c>
+      <c r="C61" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" s="81" t="s">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="C62" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" s="81" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C63" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" s="81" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="C64" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C65" s="81" t="s">
-        <v>101</v>
+        <v>92</v>
+      </c>
+      <c r="C65" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C66" s="81" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C67" s="81" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="C67" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C68" s="81" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C69" s="81" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="C69" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C70" s="81" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="C70" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C71" s="81" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="C71" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C72" s="81" t="s">
-        <v>105</v>
+        <v>99</v>
+      </c>
+      <c r="C72" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C73" s="81" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="81" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C74" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="81" t="s">
-        <v>99</v>
+        <v>102</v>
+      </c>
+      <c r="C75" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="81" t="s">
-        <v>105</v>
+        <v>103</v>
+      </c>
+      <c r="C76" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C77" s="81" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="C77" s="61" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="81" t="s">
         <v>105</v>
+      </c>
+      <c r="C78" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C79" s="81" t="s">
-        <v>101</v>
+        <v>106</v>
+      </c>
+      <c r="C79" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C80" s="81" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="C80" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C81" s="81" t="s">
-        <v>101</v>
+        <v>108</v>
+      </c>
+      <c r="C81" s="61" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3472,7 +3472,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3528,7 +3528,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
+      <c r="A2" s="69"/>
       <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
@@ -3541,31 +3541,31 @@
       <c r="E2" s="34"/>
       <c r="F2" s="34"/>
       <c r="G2" s="34"/>
-      <c r="L2" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="80"/>
+      <c r="L2" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="D3" s="41"/>
       <c r="E3" s="42"/>
@@ -3573,168 +3573,168 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="5" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="5" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="70"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="70"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="70"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="5" t="s">
-        <v>86</v>
+        <v>126</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="45"/>
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="72"/>
       <c r="B12" s="7" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D12" s="47"/>
       <c r="E12" s="45"/>
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="72"/>
+      <c r="A13" s="73"/>
       <c r="B13" s="8" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="9" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="73"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="9" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C15" s="49" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D15" s="49"/>
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="73"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="9" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="D16" s="49"/>
       <c r="E16" s="50"/>
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="10" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D17" s="51"/>
       <c r="E17" s="50"/>
@@ -3743,10 +3743,10 @@
     <row r="18" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="11" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="50"/>
@@ -3755,10 +3755,10 @@
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="6" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="50"/>
@@ -3767,10 +3767,10 @@
     <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="12" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="50"/>
@@ -3779,10 +3779,10 @@
     <row r="21" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="50"/>
@@ -3791,10 +3791,10 @@
     <row r="22" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="50"/>
@@ -3803,10 +3803,10 @@
     <row r="23" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="35" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="50"/>
@@ -3815,10 +3815,10 @@
     <row r="24" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="50"/>
@@ -3827,10 +3827,10 @@
     <row r="25" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C25" s="57" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D25" s="57"/>
       <c r="E25" s="50"/>
@@ -3839,10 +3839,10 @@
     <row r="26" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="50"/>
@@ -3851,10 +3851,10 @@
     <row r="27" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="50"/>
@@ -3863,10 +3863,10 @@
     <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="50"/>
@@ -3875,10 +3875,10 @@
     <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="50"/>
@@ -3887,10 +3887,10 @@
     <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="50"/>
@@ -3899,10 +3899,10 @@
     <row r="31" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="50"/>
@@ -3911,10 +3911,10 @@
     <row r="32" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="50"/>
@@ -3923,10 +3923,10 @@
     <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="50"/>
@@ -3935,10 +3935,10 @@
     <row r="34" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="35" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="50"/>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89303F4-1B00-494B-8D2A-3466BECD071D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F62C3F-53AA-4979-A933-482364ED9C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="157">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -766,33 +766,6 @@
     <t>Teacher_Execute_2</t>
   </si>
   <si>
-    <t>Tutorial_Mistake_Second_Room_3</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_4</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_5</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_6</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_7</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_8</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_9</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_10</t>
-  </si>
-  <si>
-    <t>Tutorial_Mistake_Second_Room_11</t>
-  </si>
-  <si>
     <t>Tutorial_1_Begining_0</t>
   </si>
   <si>
@@ -860,6 +833,81 @@
   </si>
   <si>
     <t>Level_1_Begining_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Begining_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_First_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_First_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_First_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_2_First_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_2_First_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_4</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Second_Room_5</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_First_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_First_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_First_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_Second_Room_0</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_Second_Room_1</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_Second_Room_2</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_Second_Room_3</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_Second_Room_4</t>
+  </si>
+  <si>
+    <t>Level_2_End_0</t>
+  </si>
+  <si>
+    <t>2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>Level_2_Begining_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_0</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_1</t>
   </si>
 </sst>
 </file>
@@ -3562,7 +3610,7 @@
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C3" s="40" t="s">
         <v>82</v>
@@ -3575,7 +3623,7 @@
     <row r="4" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71"/>
       <c r="B4" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C4" s="43" t="s">
         <v>85</v>
@@ -3587,7 +3635,7 @@
     <row r="5" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71"/>
       <c r="B5" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="C5" s="43" t="s">
         <v>84</v>
@@ -3599,7 +3647,7 @@
     <row r="6" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71"/>
       <c r="B6" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C6" s="43" t="s">
         <v>85</v>
@@ -3611,7 +3659,7 @@
     <row r="7" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="71"/>
       <c r="B7" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>86</v>
@@ -3623,7 +3671,7 @@
     <row r="8" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="71"/>
       <c r="B8" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>81</v>
@@ -3635,7 +3683,7 @@
     <row r="9" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="71"/>
       <c r="B9" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>86</v>
@@ -3647,7 +3695,7 @@
     <row r="10" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="71"/>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>85</v>
@@ -3659,7 +3707,7 @@
     <row r="11" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="71"/>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>84</v>
@@ -3671,7 +3719,7 @@
     <row r="12" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
       <c r="B12" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C12" s="46" t="s">
         <v>84</v>
@@ -3683,7 +3731,7 @@
     <row r="13" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="73"/>
       <c r="B13" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>86</v>
@@ -3695,7 +3743,7 @@
     <row r="14" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="74"/>
       <c r="B14" s="9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C14" s="49" t="s">
         <v>87</v>
@@ -3707,7 +3755,7 @@
     <row r="15" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="74"/>
       <c r="B15" s="9" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C15" s="49" t="s">
         <v>85</v>
@@ -3719,7 +3767,7 @@
     <row r="16" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="74"/>
       <c r="B16" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C16" s="49" t="s">
         <v>87</v>
@@ -3731,7 +3779,7 @@
     <row r="17" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
       <c r="B17" s="10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C17" s="51" t="s">
         <v>81</v>
@@ -3743,7 +3791,7 @@
     <row r="18" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C18" s="53" t="s">
         <v>83</v>
@@ -3755,7 +3803,7 @@
     <row r="19" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54"/>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C19" s="44" t="s">
         <v>83</v>
@@ -3767,7 +3815,7 @@
     <row r="20" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54"/>
       <c r="B20" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C20" s="55" t="s">
         <v>86</v>
@@ -3779,7 +3827,7 @@
     <row r="21" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
       <c r="B21" s="35" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C21" s="57" t="s">
         <v>86</v>
@@ -3791,7 +3839,7 @@
     <row r="22" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
       <c r="B22" s="35" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C22" s="57" t="s">
         <v>86</v>
@@ -3803,7 +3851,7 @@
     <row r="23" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="34"/>
       <c r="B23" s="35" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C23" s="57" t="s">
         <v>87</v>
@@ -3815,7 +3863,7 @@
     <row r="24" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>84</v>
@@ -3827,7 +3875,7 @@
     <row r="25" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>81</v>
@@ -3839,10 +3887,10 @@
     <row r="26" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D26" s="57"/>
       <c r="E26" s="50"/>
@@ -3851,10 +3899,10 @@
     <row r="27" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="50"/>
@@ -3863,10 +3911,10 @@
     <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="50"/>
@@ -3875,7 +3923,7 @@
     <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>81</v>
@@ -3887,10 +3935,10 @@
     <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="50"/>
@@ -3899,7 +3947,7 @@
     <row r="31" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>81</v>
@@ -3911,10 +3959,10 @@
     <row r="32" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="50"/>
@@ -3923,10 +3971,10 @@
     <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="50"/>
@@ -3935,10 +3983,10 @@
     <row r="34" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="35" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="50"/>
@@ -3946,107 +3994,180 @@
     </row>
     <row r="35" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="57"/>
+      <c r="B35" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>86</v>
+      </c>
       <c r="D35" s="57"/>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="57"/>
+      <c r="B36" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D36" s="57"/>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="D37" s="57"/>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
     </row>
     <row r="38" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
-      <c r="C38" s="57"/>
+      <c r="B38" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>82</v>
+      </c>
       <c r="D38" s="57"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
     </row>
     <row r="39" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
-      <c r="C39" s="57"/>
+      <c r="B39" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D39" s="57"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
     </row>
     <row r="40" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>87</v>
+      </c>
       <c r="D40" s="57"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
     </row>
     <row r="41" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
-      <c r="C41" s="57"/>
+      <c r="B41" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>87</v>
+      </c>
       <c r="D41" s="57"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
     </row>
     <row r="42" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
-      <c r="C42" s="57"/>
+      <c r="B42" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>86</v>
+      </c>
       <c r="D42" s="57"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
     </row>
     <row r="43" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
-      <c r="C43" s="57"/>
+      <c r="B43" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D43" s="57"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
     </row>
     <row r="44" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
-      <c r="C44" s="57"/>
+      <c r="B44" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D44" s="57"/>
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
     </row>
     <row r="45" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
-      <c r="C45" s="57"/>
+      <c r="B45" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="D45" s="57"/>
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
     </row>
     <row r="46" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
-      <c r="C46" s="57"/>
+      <c r="B46" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>81</v>
+      </c>
       <c r="D46" s="57"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
     </row>
     <row r="47" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
-      <c r="C47" s="57"/>
+      <c r="B47" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D47" s="57"/>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
     </row>
     <row r="48" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
-      <c r="C48" s="57"/>
+      <c r="B48" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D48" s="57"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
     </row>
     <row r="49" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
-      <c r="C49" s="57"/>
+      <c r="B49" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="D49" s="57"/>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F62C3F-53AA-4979-A933-482364ED9C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975993A-1687-48F2-987D-D15326C4349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -908,6 +908,15 @@
   </si>
   <si>
     <t>Level_1_Ending_1</t>
+  </si>
+  <si>
+    <t>Level_1_Ending_2</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_0</t>
+  </si>
+  <si>
+    <t>Level_1_Mistake_Ending_1</t>
   </si>
 </sst>
 </file>
@@ -3902,7 +3911,7 @@
         <v>156</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D27" s="57"/>
       <c r="E27" s="50"/>
@@ -3911,10 +3920,10 @@
     <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="50"/>
@@ -3923,7 +3932,7 @@
     <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>81</v>
@@ -3935,10 +3944,10 @@
     <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D30" s="57"/>
       <c r="E30" s="50"/>
@@ -3947,10 +3956,10 @@
     <row r="31" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="50"/>
@@ -3959,10 +3968,10 @@
     <row r="32" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="50"/>
@@ -3971,10 +3980,10 @@
     <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="50"/>
@@ -3983,10 +3992,10 @@
     <row r="34" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D34" s="57"/>
       <c r="E34" s="50"/>
@@ -3995,10 +4004,10 @@
     <row r="35" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="50" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="50"/>
@@ -4007,10 +4016,10 @@
     <row r="36" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="50"/>
@@ -4019,10 +4028,10 @@
     <row r="37" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D37" s="57"/>
       <c r="E37" s="50"/>
@@ -4031,10 +4040,10 @@
     <row r="38" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="50"/>
@@ -4043,7 +4052,7 @@
     <row r="39" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C39" s="57" t="s">
         <v>83</v>
@@ -4055,7 +4064,7 @@
     <row r="40" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="35" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="57" t="s">
         <v>87</v>
@@ -4067,10 +4076,10 @@
     <row r="41" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
       <c r="B41" s="35" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="50"/>
@@ -4079,7 +4088,7 @@
     <row r="42" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C42" s="57" t="s">
         <v>86</v>
@@ -4091,7 +4100,7 @@
     <row r="43" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C43" s="57" t="s">
         <v>83</v>
@@ -4103,7 +4112,7 @@
     <row r="44" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C44" s="57" t="s">
         <v>83</v>
@@ -4115,10 +4124,10 @@
     <row r="45" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="50"/>
@@ -4127,10 +4136,10 @@
     <row r="46" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="50"/>
@@ -4139,7 +4148,7 @@
     <row r="47" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C47" s="57" t="s">
         <v>83</v>
@@ -4151,10 +4160,10 @@
     <row r="48" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="35" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D48" s="57"/>
       <c r="E48" s="50"/>
@@ -4163,10 +4172,10 @@
     <row r="49" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="50"/>
@@ -4174,21 +4183,36 @@
     </row>
     <row r="50" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
-      <c r="C50" s="57"/>
+      <c r="B50" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D50" s="57"/>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
     </row>
     <row r="51" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D51" s="57"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
     </row>
     <row r="52" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
-      <c r="C52" s="57"/>
+      <c r="B52" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>153</v>
+      </c>
       <c r="D52" s="57"/>
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975993A-1687-48F2-987D-D15326C4349C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC5FD9-F019-4045-AEB1-FFC1B8F6B1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CC5FD9-F019-4045-AEB1-FFC1B8F6B1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D6D3C-3007-4B8F-8D59-57B3CDCE0527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1260" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="2130" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Script" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="226">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -895,9 +895,6 @@
     <t>Tutorial_2_Mistake_Second_Room_4</t>
   </si>
   <si>
-    <t>Level_2_End_0</t>
-  </si>
-  <si>
     <t>2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0;2.0</t>
   </si>
   <si>
@@ -917,6 +914,207 @@
   </si>
   <si>
     <t>Level_1_Mistake_Ending_1</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_8</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_9</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_10</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_11</t>
+  </si>
+  <si>
+    <t>Tutorial_1_Mistake_Room_12</t>
+  </si>
+  <si>
+    <t>Tutorial_2_Mistake_First_Room_3</t>
+  </si>
+  <si>
+    <t>Level_2_Begining_1</t>
+  </si>
+  <si>
+    <t>Level_2_Ending_0</t>
+  </si>
+  <si>
+    <t>2.8;2.8</t>
+  </si>
+  <si>
+    <t>3.3;3.3</t>
+  </si>
+  <si>
+    <t>5.2;2.6;2.6</t>
+  </si>
+  <si>
+    <t>4.7;4.7</t>
+  </si>
+  <si>
+    <t>3.5;3.5</t>
+  </si>
+  <si>
+    <t>2.6;2.6</t>
+  </si>
+  <si>
+    <t>4.0;4.0</t>
+  </si>
+  <si>
+    <t>3.6;1.8;1.8</t>
+  </si>
+  <si>
+    <t>1.7;1.7</t>
+  </si>
+  <si>
+    <t>2.3;2.3</t>
+  </si>
+  <si>
+    <t>2.1;2.1</t>
+  </si>
+  <si>
+    <t>4.1;4.1</t>
+  </si>
+  <si>
+    <t>3.8;1.9;1.9</t>
+  </si>
+  <si>
+    <t>2.9;2.9</t>
+  </si>
+  <si>
+    <t>4.5;2.2;2.2</t>
+  </si>
+  <si>
+    <t>6.5;2.2;2.2;2.2</t>
+  </si>
+  <si>
+    <t>5.1;1.7;1.7;1.7</t>
+  </si>
+  <si>
+    <t>4.3;1.4;1.4;1.4</t>
+  </si>
+  <si>
+    <t>3.0;1.5;1.5</t>
+  </si>
+  <si>
+    <t>6.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>5.8;1.9;1.9;1.9</t>
+  </si>
+  <si>
+    <t>3.4;1.7;1.7</t>
+  </si>
+  <si>
+    <t>4.4;2.2;2.2</t>
+  </si>
+  <si>
+    <t>6.0;1.5;1.5;1.5;1.5</t>
+  </si>
+  <si>
+    <t>4.9;2.5;2.5</t>
+  </si>
+  <si>
+    <t>4.8;2.4;2.4</t>
+  </si>
+  <si>
+    <t>6.8;2.3;2.3;2.3</t>
+  </si>
+  <si>
+    <t>7.3;1.8;1.8;1.8;1.8</t>
+  </si>
+  <si>
+    <t>6.4;2.1;2.1;2.1</t>
+  </si>
+  <si>
+    <t>4.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>4.7;1.6;1.6;1.6</t>
+  </si>
+  <si>
+    <t>4.2;2.1;2.1</t>
+  </si>
+  <si>
+    <t>5.3;1.8;1.8;1.8</t>
+  </si>
+  <si>
+    <t>2.5;1.2;1.2</t>
+  </si>
+  <si>
+    <t>2.4;1.2;1.2</t>
+  </si>
+  <si>
+    <t>2.8;1.4;1.4</t>
+  </si>
+  <si>
+    <t>1.7;0.8;0.8</t>
+  </si>
+  <si>
+    <t>5.2;1.7;1.7;1.7</t>
+  </si>
+  <si>
+    <t>8.6;1.7;1.7;1.7;1.7;1.7</t>
+  </si>
+  <si>
+    <t>12.4;2.1;2.1;2.1;2.1;2.1;2.1</t>
+  </si>
+  <si>
+    <t>10.0;2.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>8.0;2.0;2.0;2.0;2.0</t>
+  </si>
+  <si>
+    <t>10.1;2.5;2.5;2.5;2.5</t>
+  </si>
+  <si>
+    <t>8.4;2.1;2.1;2.1;2.1</t>
+  </si>
+  <si>
+    <t>6.2;2.1;2.1;2.1</t>
+  </si>
+  <si>
+    <t>6.6;2.2;2.2;2.2</t>
+  </si>
+  <si>
+    <t>5.5;1.4;1.4;1.4;1.4</t>
+  </si>
+  <si>
+    <t>3.1;3.1</t>
+  </si>
+  <si>
+    <t>9.2;1.8;1.8;1.8;1.8;1.8</t>
+  </si>
+  <si>
+    <t>9.3;1.9;1.9;1.9;1.9;1.9</t>
+  </si>
+  <si>
+    <t>2.7;2.7</t>
+  </si>
+  <si>
+    <t>8.6;2.1;2.1;2.1;2.1</t>
+  </si>
+  <si>
+    <t>1.7;0.6;0.6;0.6</t>
+  </si>
+  <si>
+    <t>26.7;2.7;2.7;2.7;2.7;2.7;2.7;2.7;2.7;2.7;2.7</t>
+  </si>
+  <si>
+    <t>4.9;1.6;1.6;1.6</t>
+  </si>
+  <si>
+    <t>5.0;1.3;1.3;1.3;1.3</t>
+  </si>
+  <si>
+    <t>4.6;1.5;1.5;1.5</t>
+  </si>
+  <si>
+    <t>4.1;1.4;1.4;1.4</t>
+  </si>
+  <si>
+    <t>5.7;1.9;1.9;1.9</t>
   </si>
 </sst>
 </file>
@@ -1458,9 +1656,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,12 +1664,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,6 +1697,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1810,7 +2008,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1824,7 +2022,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1836,49 +2034,49 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="D6" s="25"/>
     </row>
     <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
@@ -1886,7 +2084,7 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +2092,7 @@
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +2100,7 @@
       <c r="D9" s="25"/>
     </row>
     <row r="10" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +2108,7 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +2116,7 @@
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -1926,39 +2124,39 @@
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="D13" s="30"/>
     </row>
     <row r="14" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1966,7 +2164,7 @@
       <c r="D16" s="18"/>
     </row>
     <row r="17" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
@@ -1974,39 +2172,39 @@
       <c r="D17" s="58"/>
     </row>
     <row r="18" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="76" t="s">
+      <c r="A18" s="73" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D18" s="59"/>
     </row>
     <row r="19" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="77"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="D19" s="25"/>
     </row>
     <row r="20" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="77"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="D20" s="25"/>
     </row>
     <row r="21" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="77"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2212,7 @@
       <c r="D21" s="25"/>
     </row>
     <row r="22" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
@@ -2022,39 +2220,39 @@
       <c r="D22" s="60"/>
     </row>
     <row r="23" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66" t="s">
+      <c r="A23" s="76" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
       <c r="D23" s="15"/>
     </row>
     <row r="24" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
+      <c r="A24" s="77"/>
       <c r="B24" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="62"/>
+      <c r="A25" s="77"/>
       <c r="B25" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="D25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="19" t="s">
         <v>43</v>
       </c>
@@ -2062,39 +2260,39 @@
       <c r="D26" s="21"/>
     </row>
     <row r="27" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="62" t="s">
         <v>21</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64"/>
+      <c r="A28" s="63"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>81</v>
+        <v>178</v>
       </c>
       <c r="D28" s="25"/>
     </row>
     <row r="29" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
+      <c r="A29" s="63"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="D29" s="25"/>
     </row>
     <row r="30" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
+      <c r="A30" s="64"/>
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
@@ -2102,103 +2300,103 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="66" t="s">
+      <c r="A31" s="76" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62"/>
+      <c r="A32" s="77"/>
       <c r="B32" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="D32" s="18"/>
     </row>
     <row r="33" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="67"/>
+      <c r="A33" s="78"/>
       <c r="B33" s="19" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D33" s="21"/>
     </row>
     <row r="34" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
+      <c r="A35" s="63"/>
       <c r="B35" s="31" t="s">
         <v>52</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="D35" s="25"/>
     </row>
     <row r="36" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="32" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="D36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66" t="s">
+      <c r="A37" s="76" t="s">
         <v>24</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>54</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
+      <c r="A38" s="77"/>
       <c r="B38" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="D38" s="18"/>
     </row>
     <row r="39" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
+      <c r="A39" s="77"/>
       <c r="B39" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="62"/>
+      <c r="A40" s="77"/>
       <c r="B40" s="16" t="s">
         <v>57</v>
       </c>
@@ -2206,7 +2404,7 @@
       <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
+      <c r="A41" s="77"/>
       <c r="B41" s="19" t="s">
         <v>58</v>
       </c>
@@ -2214,39 +2412,39 @@
       <c r="D41" s="21"/>
     </row>
     <row r="42" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>59</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64"/>
+      <c r="A43" s="63"/>
       <c r="B43" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="D43" s="25"/>
     </row>
     <row r="44" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64"/>
+      <c r="A44" s="63"/>
       <c r="B44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="24" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="D44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64"/>
+      <c r="A45" s="63"/>
       <c r="B45" s="5" t="s">
         <v>62</v>
       </c>
@@ -2254,7 +2452,7 @@
       <c r="D45" s="25"/>
     </row>
     <row r="46" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
+      <c r="A46" s="64"/>
       <c r="B46" s="7" t="s">
         <v>63</v>
       </c>
@@ -2262,39 +2460,39 @@
       <c r="D46" s="27"/>
     </row>
     <row r="47" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="62" t="s">
+      <c r="A47" s="77" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="28" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62"/>
+      <c r="A48" s="77"/>
       <c r="B48" s="16" t="s">
         <v>65</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="D48" s="18"/>
     </row>
     <row r="49" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="62"/>
+      <c r="A49" s="77"/>
       <c r="B49" s="16" t="s">
         <v>74</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
       <c r="D49" s="18"/>
     </row>
     <row r="50" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62"/>
+      <c r="A50" s="77"/>
       <c r="B50" s="19" t="s">
         <v>75</v>
       </c>
@@ -2302,39 +2500,39 @@
       <c r="D50" s="21"/>
     </row>
     <row r="51" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="63" t="s">
+      <c r="A51" s="62" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>76</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
       <c r="D51" s="23"/>
     </row>
     <row r="52" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
+      <c r="A52" s="63"/>
       <c r="B52" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="D52" s="25"/>
     </row>
     <row r="53" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64"/>
+      <c r="A53" s="63"/>
       <c r="B53" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
       <c r="D53" s="25"/>
     </row>
     <row r="54" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="65"/>
+      <c r="A54" s="64"/>
       <c r="B54" s="7" t="s">
         <v>67</v>
       </c>
@@ -2342,66 +2540,66 @@
       <c r="D54" s="27"/>
     </row>
     <row r="55" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="62" t="s">
+      <c r="A55" s="77" t="s">
         <v>28</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>68</v>
       </c>
       <c r="C55" s="29" t="s">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="D55" s="30"/>
     </row>
     <row r="56" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="62"/>
+      <c r="A56" s="77"/>
       <c r="B56" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="D56" s="18"/>
     </row>
     <row r="57" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
+      <c r="A57" s="77"/>
       <c r="B57" s="19" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="20" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
       <c r="D57" s="21"/>
     </row>
     <row r="58" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="63" t="s">
+      <c r="A58" s="62" t="s">
         <v>29</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>71</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>83</v>
+        <v>193</v>
       </c>
       <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64"/>
+      <c r="A59" s="63"/>
       <c r="B59" s="31" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
       <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="65"/>
+      <c r="A60" s="64"/>
       <c r="B60" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>83</v>
+        <v>195</v>
       </c>
       <c r="D60" s="27"/>
     </row>
@@ -2410,7 +2608,7 @@
         <v>88</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2616,7 @@
         <v>89</v>
       </c>
       <c r="C62" s="61" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2426,7 +2624,7 @@
         <v>90</v>
       </c>
       <c r="C63" s="61" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2434,7 +2632,7 @@
         <v>91</v>
       </c>
       <c r="C64" s="61" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2442,7 +2640,7 @@
         <v>92</v>
       </c>
       <c r="C65" s="61" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2458,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="C67" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2466,7 +2664,7 @@
         <v>95</v>
       </c>
       <c r="C68" s="61" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2474,7 +2672,7 @@
         <v>96</v>
       </c>
       <c r="C69" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2482,7 +2680,7 @@
         <v>97</v>
       </c>
       <c r="C70" s="61" t="s">
-        <v>87</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2490,7 +2688,7 @@
         <v>98</v>
       </c>
       <c r="C71" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2498,7 +2696,7 @@
         <v>99</v>
       </c>
       <c r="C72" s="61" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2506,7 +2704,7 @@
         <v>100</v>
       </c>
       <c r="C73" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2514,7 +2712,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="61" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2720,7 @@
         <v>102</v>
       </c>
       <c r="C75" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2530,7 +2728,7 @@
         <v>103</v>
       </c>
       <c r="C76" s="61" t="s">
-        <v>87</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,7 +2736,7 @@
         <v>104</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,7 +2744,7 @@
         <v>105</v>
       </c>
       <c r="C78" s="61" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2554,7 +2752,7 @@
         <v>106</v>
       </c>
       <c r="C79" s="61" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2562,7 +2760,7 @@
         <v>107</v>
       </c>
       <c r="C80" s="61" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2570,7 +2768,7 @@
         <v>108</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3494,12 +3692,6 @@
     <row r="1000" ht="37.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A31:A33"/>
@@ -3508,6 +3700,12 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3529,7 +3727,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="65" t="s">
         <v>78</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3585,7 +3783,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="33" t="s">
         <v>4</v>
       </c>
@@ -3615,7 +3813,7 @@
       <c r="X2" s="81"/>
     </row>
     <row r="3" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="67" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3630,91 +3828,91 @@
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>110</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="D4" s="44"/>
       <c r="E4" s="45"/>
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>111</v>
       </c>
       <c r="C5" s="43" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="D5" s="44"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="71"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C6" s="43" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="45"/>
       <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="71"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="45"/>
       <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="43" t="s">
-        <v>81</v>
+        <v>176</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="45"/>
       <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>85</v>
+        <v>205</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45"/>
       <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="5" t="s">
         <v>117</v>
       </c>
@@ -3726,7 +3924,7 @@
       <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:24" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="7" t="s">
         <v>118</v>
       </c>
@@ -3738,31 +3936,31 @@
       <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
+      <c r="A13" s="70"/>
       <c r="B13" s="8" t="s">
         <v>119</v>
       </c>
       <c r="C13" s="48" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
     </row>
     <row r="14" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="74"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="D14" s="49"/>
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="74"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="9" t="s">
         <v>121</v>
       </c>
@@ -3774,7 +3972,7 @@
       <c r="F15" s="50"/>
     </row>
     <row r="16" spans="1:24" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="74"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="9" t="s">
         <v>122</v>
       </c>
@@ -3786,7 +3984,7 @@
       <c r="F16" s="50"/>
     </row>
     <row r="17" spans="1:6" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="10" t="s">
         <v>123</v>
       </c>
@@ -3803,7 +4001,7 @@
         <v>124</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="50"/>
@@ -3815,7 +4013,7 @@
         <v>125</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="D19" s="44"/>
       <c r="E19" s="50"/>
@@ -3839,7 +4037,7 @@
         <v>127</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>86</v>
+        <v>213</v>
       </c>
       <c r="D21" s="57"/>
       <c r="E21" s="50"/>
@@ -3851,7 +4049,7 @@
         <v>128</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>86</v>
+        <v>189</v>
       </c>
       <c r="D22" s="57"/>
       <c r="E22" s="50"/>
@@ -3863,7 +4061,7 @@
         <v>129</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="D23" s="57"/>
       <c r="E23" s="50"/>
@@ -3872,10 +4070,10 @@
     <row r="24" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="34"/>
       <c r="B24" s="35" t="s">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D24" s="57"/>
       <c r="E24" s="50"/>
@@ -3884,7 +4082,7 @@
     <row r="25" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="34"/>
       <c r="B25" s="35" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>81</v>
@@ -3896,7 +4094,7 @@
     <row r="26" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="34"/>
       <c r="B26" s="35" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="C26" s="57" t="s">
         <v>87</v>
@@ -3908,7 +4106,7 @@
     <row r="27" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="35" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="C27" s="57" t="s">
         <v>87</v>
@@ -3920,10 +4118,10 @@
     <row r="28" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="35" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D28" s="57"/>
       <c r="E28" s="50"/>
@@ -3932,10 +4130,10 @@
     <row r="29" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="35" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="57"/>
       <c r="E29" s="50"/>
@@ -3944,7 +4142,7 @@
     <row r="30" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="35" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="C30" s="57" t="s">
         <v>81</v>
@@ -3956,7 +4154,7 @@
     <row r="31" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="34"/>
       <c r="B31" s="35" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C31" s="57" t="s">
         <v>87</v>
@@ -3968,10 +4166,10 @@
     <row r="32" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="34"/>
       <c r="B32" s="35" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D32" s="57"/>
       <c r="E32" s="50"/>
@@ -3980,10 +4178,10 @@
     <row r="33" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="34"/>
       <c r="B33" s="35" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D33" s="57"/>
       <c r="E33" s="50"/>
@@ -3992,7 +4190,7 @@
     <row r="34" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
       <c r="B34" s="35" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="C34" s="57" t="s">
         <v>81</v>
@@ -4004,10 +4202,10 @@
     <row r="35" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="50" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C35" s="57" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D35" s="57"/>
       <c r="E35" s="50"/>
@@ -4016,10 +4214,10 @@
     <row r="36" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>81</v>
+        <v>188</v>
       </c>
       <c r="D36" s="57"/>
       <c r="E36" s="50"/>
@@ -4028,10 +4226,10 @@
     <row r="37" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="34"/>
       <c r="B37" s="35" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>86</v>
+        <v>214</v>
       </c>
       <c r="D37" s="57"/>
       <c r="E37" s="50"/>
@@ -4040,10 +4238,10 @@
     <row r="38" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="34"/>
       <c r="B38" s="35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>86</v>
+        <v>215</v>
       </c>
       <c r="D38" s="57"/>
       <c r="E38" s="50"/>
@@ -4052,10 +4250,10 @@
     <row r="39" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="34"/>
       <c r="B39" s="35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C39" s="57" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="D39" s="57"/>
       <c r="E39" s="50"/>
@@ -4064,10 +4262,10 @@
     <row r="40" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="34"/>
       <c r="B40" s="35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C40" s="57" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="D40" s="57"/>
       <c r="E40" s="50"/>
@@ -4076,10 +4274,10 @@
     <row r="41" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="34"/>
       <c r="B41" s="35" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C41" s="57" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="D41" s="57"/>
       <c r="E41" s="50"/>
@@ -4088,10 +4286,10 @@
     <row r="42" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
       <c r="B42" s="35" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C42" s="57" t="s">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="D42" s="57"/>
       <c r="E42" s="50"/>
@@ -4100,10 +4298,10 @@
     <row r="43" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
       <c r="B43" s="35" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C43" s="57" t="s">
-        <v>83</v>
+        <v>208</v>
       </c>
       <c r="D43" s="57"/>
       <c r="E43" s="50"/>
@@ -4112,10 +4310,10 @@
     <row r="44" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C44" s="57" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="D44" s="57"/>
       <c r="E44" s="50"/>
@@ -4124,10 +4322,10 @@
     <row r="45" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
       <c r="B45" s="35" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C45" s="57" t="s">
-        <v>86</v>
+        <v>176</v>
       </c>
       <c r="D45" s="57"/>
       <c r="E45" s="50"/>
@@ -4136,10 +4334,10 @@
     <row r="46" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
       <c r="B46" s="35" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C46" s="57" t="s">
-        <v>83</v>
+        <v>220</v>
       </c>
       <c r="D46" s="57"/>
       <c r="E46" s="50"/>
@@ -4148,10 +4346,10 @@
     <row r="47" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="34"/>
       <c r="B47" s="35" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C47" s="57" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="D47" s="57"/>
       <c r="E47" s="50"/>
@@ -4160,10 +4358,10 @@
     <row r="48" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="34"/>
       <c r="B48" s="35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C48" s="57" t="s">
-        <v>81</v>
+        <v>179</v>
       </c>
       <c r="D48" s="57"/>
       <c r="E48" s="50"/>
@@ -4172,10 +4370,10 @@
     <row r="49" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="34"/>
       <c r="B49" s="35" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="D49" s="57"/>
       <c r="E49" s="50"/>
@@ -4184,10 +4382,10 @@
     <row r="50" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="34"/>
       <c r="B50" s="35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C50" s="57" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="50"/>
@@ -4196,10 +4394,10 @@
     <row r="51" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="35" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C51" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D51" s="57"/>
       <c r="E51" s="50"/>
@@ -4208,10 +4406,10 @@
     <row r="52" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="35" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C52" s="57" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="D52" s="57"/>
       <c r="E52" s="50"/>
@@ -4219,50 +4417,84 @@
     </row>
     <row r="53" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
-      <c r="C53" s="57"/>
+      <c r="B53" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" s="57" t="s">
+        <v>224</v>
+      </c>
       <c r="D53" s="57"/>
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
     </row>
     <row r="54" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56"/>
-      <c r="C54" s="57"/>
+      <c r="B54" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>176</v>
+      </c>
       <c r="D54" s="57"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
     </row>
     <row r="55" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="34"/>
-      <c r="C55" s="57"/>
+      <c r="B55" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>167</v>
+      </c>
       <c r="D55" s="57"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
     </row>
     <row r="56" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="34"/>
-      <c r="C56" s="57"/>
+      <c r="B56" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>225</v>
+      </c>
       <c r="D56" s="57"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
     </row>
     <row r="57" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="34"/>
-      <c r="C57" s="57"/>
+      <c r="B57" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>83</v>
+      </c>
       <c r="D57" s="57"/>
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
     </row>
     <row r="58" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56"/>
-      <c r="C58" s="57"/>
+      <c r="B58" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>84</v>
+      </c>
       <c r="D58" s="57"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
     </row>
     <row r="59" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="57"/>
+      <c r="B59" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="57" t="s">
+        <v>152</v>
+      </c>
       <c r="D59" s="57"/>
       <c r="E59" s="50"/>
       <c r="F59" s="50"/>

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0D6D3C-3007-4B8F-8D59-57B3CDCE0527}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB77069-A1F7-4E94-964B-9541B5DE42AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="2130" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3465" yWindow="345" windowWidth="21960" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Script" sheetId="1" r:id="rId1"/>
@@ -2648,7 +2648,7 @@
         <v>93</v>
       </c>
       <c r="C66" s="61" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D546E9C-4F02-4C9A-8D39-37151B7373D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829F16B-7273-43F3-88F5-51ED75DEA02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10200" yWindow="3660" windowWidth="13365" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="234">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -62,24 +62,6 @@
   </si>
   <si>
     <t>Teacher_Shout_3</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_4</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_5</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_6</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_7</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_8</t>
-  </si>
-  <si>
-    <t>Teacher_Shout_9</t>
   </si>
   <si>
     <r>
@@ -538,12 +520,6 @@
     <t>Teacher_Bull_Cheating_2</t>
   </si>
   <si>
-    <t>Teacher_Bull_Cheating_3</t>
-  </si>
-  <si>
-    <t>Teacher_Bull_Cheating_4</t>
-  </si>
-  <si>
     <t>Teacher_Bull_Cheating_Sec_0</t>
   </si>
   <si>
@@ -553,12 +529,6 @@
     <t>Teacher_Bull_Cheating_Sec_2</t>
   </si>
   <si>
-    <t>Teacher_Bull_Cheating_Sec_3</t>
-  </si>
-  <si>
-    <t>Teacher_Bull_Cheating_Sec_4</t>
-  </si>
-  <si>
     <t>Teacher_Bull_Talking_0</t>
   </si>
   <si>
@@ -568,9 +538,6 @@
     <t>Teacher_Bull_Talking_2</t>
   </si>
   <si>
-    <t>Teacher_Bull_Talking_3</t>
-  </si>
-  <si>
     <t>Teacher_Bull_Talking_Sec_0</t>
   </si>
   <si>
@@ -580,9 +547,6 @@
     <t>Teacher_Bull_Talking_Sec_2</t>
   </si>
   <si>
-    <t>Teacher_Bull_Talking_Sec_3</t>
-  </si>
-  <si>
     <t>Teacher_Bull_Walking_0</t>
   </si>
   <si>
@@ -610,12 +574,6 @@
     <t>Teacher_Joke_Cheating_2</t>
   </si>
   <si>
-    <t>Teacher_Joke_Cheating_3</t>
-  </si>
-  <si>
-    <t>Teacher_Joke_Cheating_4</t>
-  </si>
-  <si>
     <t>Teacher_Joke_Cheating_Sec_0</t>
   </si>
   <si>
@@ -625,12 +583,6 @@
     <t>Teacher_Joke_Cheating_Sec_2</t>
   </si>
   <si>
-    <t>Teacher_Joke_Cheating_Sec_3</t>
-  </si>
-  <si>
-    <t>Teacher_Joke_Cheating_Sec_4</t>
-  </si>
-  <si>
     <t>Teacher_Joke_Talking_0</t>
   </si>
   <si>
@@ -640,9 +592,6 @@
     <t>Teacher_Joke_Talking_Sec_2</t>
   </si>
   <si>
-    <t>Teacher_Joke_Talking_Sec_3</t>
-  </si>
-  <si>
     <t>Teacher_Joke_Walking_0</t>
   </si>
   <si>
@@ -662,9 +611,6 @@
   </si>
   <si>
     <t>Teacher_Joke_Talking_2</t>
-  </si>
-  <si>
-    <t>Teacher_Joke_Talking_3</t>
   </si>
   <si>
     <t>Teacher_Joke_Talking_Sec_0</t>
@@ -1052,13 +998,6 @@
 5.5;
 7.7;
 9.5 </t>
-  </si>
-  <si>
-    <t>8.4;
-1.6;
-3.4;
-5.4;
-7.1</t>
   </si>
   <si>
     <t>4.2;
@@ -1263,104 +1202,14 @@
 4.6</t>
   </si>
   <si>
-    <t>3.6;
-1.3;
-3.6</t>
-  </si>
-  <si>
-    <t>3.8;
-2.2;
-3.8</t>
-  </si>
-  <si>
-    <t>3.8;
-1.3;
-3.8</t>
-  </si>
-  <si>
-    <t>3.6;
-1.4;
-3.6</t>
-  </si>
-  <si>
     <t>4.5;
 2.6;
 4.4</t>
   </si>
   <si>
-    <t>6.5;
-3.2;
-4.6;
-6.6</t>
-  </si>
-  <si>
-    <t>5.1;
-2.3;
-4;
-5.1</t>
-  </si>
-  <si>
-    <t>4.3;
-1.6;
-3.2;
-4.2</t>
-  </si>
-  <si>
-    <t>3;
-1.1;
-3</t>
-  </si>
-  <si>
-    <t>6;
-1.3;
-3;
-5.8</t>
-  </si>
-  <si>
-    <t>5.8;
-1.8;
-3.2;
-5.7</t>
-  </si>
-  <si>
-    <t>3.4;
-1.7;
-2</t>
-  </si>
-  <si>
-    <t>4.4;
-2.8;
-4.4</t>
-  </si>
-  <si>
-    <t>6;
-1.5;
-3;
-4.7;
-6</t>
-  </si>
-  <si>
     <t>4.9;
 2.2;
 4.8</t>
-  </si>
-  <si>
-    <t>4.8;
-2.7;
-4.8</t>
-  </si>
-  <si>
-    <t>6.8;
-1.3;
-4.5;
-6.6</t>
-  </si>
-  <si>
-    <t>7.3;
-2.2;
-4.3;
-5.6;
-7.2</t>
   </si>
   <si>
     <t>5.3;
@@ -1407,12 +1256,6 @@
 1.7;
 3;
 5.7</t>
-  </si>
-  <si>
-    <t>6.4;
-3.4;
-4.5;
-6.3</t>
   </si>
   <si>
     <t>5.2;
@@ -1460,6 +1303,137 @@
 22;
 23.5;
 26.5</t>
+  </si>
+  <si>
+    <t>3.6;
+1.8;
+3.6</t>
+  </si>
+  <si>
+    <t>4.5;
+2.2;
+4.4</t>
+  </si>
+  <si>
+    <t>6.5;
+2.2;
+4.4;
+6.6</t>
+  </si>
+  <si>
+    <t>5.1;
+1.7;
+3.4;
+5.1</t>
+  </si>
+  <si>
+    <t>4.3;
+1.4;
+2.8;
+4.2</t>
+  </si>
+  <si>
+    <t>3;
+1.5;
+3</t>
+  </si>
+  <si>
+    <t>6;
+2;
+4;
+6</t>
+  </si>
+  <si>
+    <t>5.8;
+1.9;
+3.8;
+5.7</t>
+  </si>
+  <si>
+    <t>3.4;
+1.7;
+3.4</t>
+  </si>
+  <si>
+    <t>6;
+1.5;
+3;
+4.5;
+6</t>
+  </si>
+  <si>
+    <t>4.9;
+2.4;
+4.8</t>
+  </si>
+  <si>
+    <t>4.8;
+2.4;
+4.8</t>
+  </si>
+  <si>
+    <t>6.8;
+2.3;
+4.6;
+6.9</t>
+  </si>
+  <si>
+    <t>7.3;
+1.8;
+3.6;
+5.4;
+7.2</t>
+  </si>
+  <si>
+    <t>6.4;
+2.1;
+4.2;
+6.3</t>
+  </si>
+  <si>
+    <t>4.7;
+1.6;
+3.2;
+4.8</t>
+  </si>
+  <si>
+    <t>5.3;
+1.8;
+3.6;
+5.4</t>
+  </si>
+  <si>
+    <t>4.4;
+2.2;
+4.4</t>
+  </si>
+  <si>
+    <t>2.5;
+2.5</t>
+  </si>
+  <si>
+    <t>1.7;
+0.8;
+1.6</t>
+  </si>
+  <si>
+    <t>2.8;
+1.4;
+2.8</t>
+  </si>
+  <si>
+    <t>5.2;
+1.7;
+3.4;
+5.1</t>
+  </si>
+  <si>
+    <t>8.4;
+1.6;
+3.4;
+5.4;
+7.1;
+8.3;</t>
   </si>
 </sst>
 </file>
@@ -1892,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1915,15 +1889,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2362,7 +2332,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2376,7 +2346,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2388,741 +2358,777 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
-        <v>17</v>
+      <c r="A3" s="67" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" s="21"/>
+      <c r="C3" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="23"/>
+      <c r="C4" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>214</v>
-      </c>
-      <c r="D5" s="23"/>
+      <c r="C5" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="D6" s="23"/>
+      <c r="C6" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
+      <c r="B11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-    </row>
-    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-    </row>
-    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74" t="s">
-        <v>18</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D13" s="27"/>
+      <c r="C13" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="46" t="s">
-        <v>164</v>
-      </c>
-      <c r="D14" s="17"/>
+      <c r="C14" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>162</v>
-      </c>
-      <c r="D15" s="17"/>
+      <c r="C15" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
+      <c r="C16" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
+      <c r="C17" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="77" t="s">
-        <v>19</v>
+      <c r="A18" s="73" t="s">
+        <v>13</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="56"/>
+      <c r="C18" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="52"/>
     </row>
     <row r="19" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="78"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="23"/>
+      <c r="C19" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="41" t="s">
-        <v>215</v>
-      </c>
-      <c r="D20" s="23"/>
+      <c r="C20" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="78"/>
+      <c r="A21" s="74"/>
       <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
+      <c r="A22" s="75"/>
       <c r="B22" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
+      <c r="C22" s="48" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="53"/>
     </row>
     <row r="23" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="67" t="s">
-        <v>20</v>
+      <c r="A23" s="63" t="s">
+        <v>14</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="58" t="s">
-        <v>166</v>
+      <c r="C23" s="54" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="63"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="17"/>
+      <c r="C24" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="D25" s="17"/>
+      <c r="C25" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="64"/>
+      <c r="B26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
-        <v>21</v>
+      <c r="A27" s="60" t="s">
+        <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="21"/>
+      <c r="C27" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="23"/>
+      <c r="C28" s="36" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="D29" s="23"/>
+      <c r="C29" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="24"/>
-      <c r="D30" s="25"/>
+      <c r="C30" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="21"/>
     </row>
     <row r="31" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="60" t="s">
-        <v>217</v>
-      </c>
-      <c r="D31" s="27"/>
+      <c r="C31" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="17"/>
+      <c r="C32" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="16"/>
     </row>
     <row r="33" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="64"/>
+      <c r="B33" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="61"/>
+      <c r="B35" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="62"/>
+      <c r="B36" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="20"/>
-    </row>
-    <row r="34" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
+      <c r="C36" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="21"/>
+    </row>
+    <row r="37" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="59"/>
+      <c r="B38" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" s="16"/>
+    </row>
+    <row r="39" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="59"/>
+      <c r="B39" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D39" s="16"/>
+    </row>
+    <row r="40" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="59"/>
+      <c r="B40" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="16"/>
+    </row>
+    <row r="41" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="59"/>
+      <c r="B41" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" s="18"/>
+    </row>
+    <row r="42" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="61"/>
+      <c r="B43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="61"/>
+      <c r="B44" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="61"/>
+      <c r="B45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="62"/>
+      <c r="B46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="21"/>
+    </row>
+    <row r="47" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="59"/>
+      <c r="B48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" s="16"/>
+    </row>
+    <row r="49" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="59"/>
+      <c r="B49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="59"/>
+      <c r="B50" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="61"/>
+      <c r="B52" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="61"/>
+      <c r="B53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="62"/>
+      <c r="B54" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="59"/>
+      <c r="B56" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="16"/>
+    </row>
+    <row r="57" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="59"/>
+      <c r="B57" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D34" s="21"/>
-    </row>
-    <row r="35" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="23"/>
-    </row>
-    <row r="36" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="25"/>
-    </row>
-    <row r="37" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="60" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="27"/>
-    </row>
-    <row r="38" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63"/>
-      <c r="B38" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="63"/>
-      <c r="B39" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="59" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="63"/>
-      <c r="B40" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="16"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C41" s="19"/>
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="21"/>
-    </row>
-    <row r="43" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="40" t="s">
-        <v>240</v>
-      </c>
-      <c r="D43" s="23"/>
-    </row>
-    <row r="44" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C45" s="22"/>
-      <c r="D45" s="23"/>
-    </row>
-    <row r="46" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="25"/>
-    </row>
-    <row r="47" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="D47" s="27"/>
-    </row>
-    <row r="48" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="63"/>
-      <c r="B48" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="63"/>
-      <c r="B49" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="59" t="s">
-        <v>225</v>
-      </c>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="19"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="21"/>
-    </row>
-    <row r="52" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
-      <c r="B52" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="23"/>
-    </row>
-    <row r="53" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C53" s="40" t="s">
-        <v>227</v>
-      </c>
-      <c r="D53" s="23"/>
-    </row>
-    <row r="54" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="66"/>
-      <c r="B54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="24"/>
-      <c r="D54" s="25"/>
-    </row>
-    <row r="55" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="D55" s="27"/>
-    </row>
-    <row r="56" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="63"/>
-      <c r="B56" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="61" t="s">
+      <c r="B58" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="D57" s="20"/>
-    </row>
-    <row r="58" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="37" t="s">
+      <c r="D58" s="19"/>
+    </row>
+    <row r="59" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="61"/>
+      <c r="B59" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62"/>
+      <c r="B60" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D58" s="21"/>
-    </row>
-    <row r="59" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="65"/>
-      <c r="B59" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="40" t="s">
-        <v>232</v>
-      </c>
-      <c r="D59" s="23"/>
-    </row>
-    <row r="60" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66"/>
-      <c r="B60" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="D60" s="25"/>
+      <c r="D60" s="21"/>
     </row>
     <row r="61" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="62" t="s">
-        <v>234</v>
+      <c r="C61" s="58" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="62" t="s">
-        <v>172</v>
+      <c r="C62" s="58" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="62" t="s">
-        <v>235</v>
+      <c r="C63" s="58" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>173</v>
+        <v>66</v>
+      </c>
+      <c r="C64" s="58" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>233</v>
+        <v>67</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>236</v>
+        <v>68</v>
+      </c>
+      <c r="C66" s="58" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>166</v>
+        <v>69</v>
+      </c>
+      <c r="C67" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>176</v>
+        <v>70</v>
+      </c>
+      <c r="C68" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>166</v>
+        <v>71</v>
+      </c>
+      <c r="C69" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>176</v>
+        <v>72</v>
+      </c>
+      <c r="C70" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C71" s="62" t="s">
-        <v>166</v>
+        <v>73</v>
+      </c>
+      <c r="C71" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C72" s="62" t="s">
-        <v>176</v>
+        <v>74</v>
+      </c>
+      <c r="C72" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="62" t="s">
-        <v>166</v>
+        <v>75</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C74" s="62" t="s">
-        <v>237</v>
+        <v>76</v>
+      </c>
+      <c r="C74" s="58" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C75" s="62" t="s">
-        <v>166</v>
+        <v>77</v>
+      </c>
+      <c r="C75" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="62" t="s">
-        <v>237</v>
+        <v>78</v>
+      </c>
+      <c r="C76" s="58" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C77" s="62" t="s">
-        <v>166</v>
+        <v>79</v>
+      </c>
+      <c r="C77" s="58" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C78" s="62" t="s">
-        <v>237</v>
+        <v>80</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C79" s="62" t="s">
-        <v>242</v>
+        <v>81</v>
+      </c>
+      <c r="C79" s="58" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C80" s="62" t="s">
-        <v>238</v>
+        <v>82</v>
+      </c>
+      <c r="C80" s="58" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C81" s="62" t="s">
-        <v>239</v>
+        <v>83</v>
+      </c>
+      <c r="C81" s="58" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -3152,18 +3158,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B337C269-D4D7-4E60-AAF5-1C8ABFB41559}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="203.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="55.7109375" style="32"/>
+    <col min="1" max="16384" width="55.7109375" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
-        <v>78</v>
+      <c r="A1" s="65" t="s">
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3174,52 +3180,52 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="L1" s="33" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="L1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="P1" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="34" t="s">
+      <c r="P1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="35" t="s">
+      <c r="V1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="W1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="34" t="s">
+      <c r="X1" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="T1" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="V1" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="X1" s="36" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="2" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70"/>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3228,777 +3234,777 @@
       <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="L2" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
-      <c r="R2" s="81"/>
-      <c r="S2" s="81"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="81"/>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="82"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="L2" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="78"/>
     </row>
     <row r="3" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
-        <v>79</v>
+      <c r="A3" s="67" t="s">
+        <v>61</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="27"/>
+    </row>
+    <row r="4" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="68"/>
+      <c r="B4" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="68"/>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="68"/>
+      <c r="B7" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="68"/>
+      <c r="B8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="68"/>
+      <c r="B9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="68"/>
+      <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="68"/>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+    </row>
+    <row r="13" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="70"/>
+      <c r="B13" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="71"/>
+      <c r="B14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="71"/>
+      <c r="B15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71"/>
+      <c r="B16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+      <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="45"/>
+      <c r="B18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="49"/>
+      <c r="B21" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72"/>
-      <c r="B4" s="5" t="s">
+      <c r="C21" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="49"/>
+      <c r="B22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C22" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="D22" s="50"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+    </row>
+    <row r="24" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="50" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+    </row>
+    <row r="25" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="50"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D26" s="50"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="49"/>
+      <c r="B27" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="49"/>
+      <c r="B28" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D28" s="50"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+    </row>
+    <row r="29" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="49"/>
+      <c r="B29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+    </row>
+    <row r="30" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="49"/>
+      <c r="B30" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="50"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+    </row>
+    <row r="31" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
+      <c r="B31" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="50"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+    </row>
+    <row r="32" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-    </row>
-    <row r="5" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="72"/>
-      <c r="B5" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-    </row>
-    <row r="6" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="72"/>
-      <c r="B6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C6" s="40" t="s">
+      <c r="D32" s="50"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+    </row>
+    <row r="33" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="50"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+    </row>
+    <row r="34" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="49"/>
+      <c r="B34" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D34" s="50"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="49"/>
+      <c r="B35" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D35" s="50"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+    </row>
+    <row r="36" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="49"/>
+      <c r="B36" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="50" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-    </row>
-    <row r="7" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="72"/>
-      <c r="B7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="40" t="s">
+      <c r="D36" s="50"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+    </row>
+    <row r="37" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D37" s="50"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+    </row>
+    <row r="38" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
+      <c r="B38" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-    </row>
-    <row r="8" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-    </row>
-    <row r="9" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="72"/>
-      <c r="B9" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="40" t="s">
+      <c r="D38" s="50"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+    </row>
+    <row r="39" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
+      <c r="B39" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="D39" s="50"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+    </row>
+    <row r="40" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-    </row>
-    <row r="10" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="72"/>
-      <c r="B10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="40" t="s">
+      <c r="D40" s="50"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+    </row>
+    <row r="41" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" s="50"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+    </row>
+    <row r="42" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="49"/>
+      <c r="B42" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-    </row>
-    <row r="11" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="72"/>
-      <c r="B11" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="40" t="s">
+      <c r="D42" s="50"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+    </row>
+    <row r="43" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="49"/>
+      <c r="B43" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C43" s="50" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-    </row>
-    <row r="12" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="D43" s="50"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+    </row>
+    <row r="44" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
+      <c r="B44" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="50"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+    </row>
+    <row r="45" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D45" s="50"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+    </row>
+    <row r="46" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="49"/>
+      <c r="B46" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-    </row>
-    <row r="13" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="74"/>
-      <c r="B13" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="D46" s="50"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+    </row>
+    <row r="47" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+    </row>
+    <row r="48" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-    </row>
-    <row r="14" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="75"/>
-      <c r="B14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="46" t="s">
+      <c r="D48" s="50"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+    </row>
+    <row r="49" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
+      <c r="B49" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="15" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="75"/>
-      <c r="B15" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="46" t="s">
+      <c r="D49" s="50"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
+      <c r="B50" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-    </row>
-    <row r="16" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="75"/>
-      <c r="B16" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="1:6" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="50" t="s">
+      <c r="D50" s="50"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+    </row>
+    <row r="51" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="49"/>
+      <c r="B51" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="50"/>
+      <c r="E51" s="43"/>
+      <c r="F51" s="43"/>
+    </row>
+    <row r="52" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="49"/>
+      <c r="B52" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="50" t="s">
         <v>189</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="41" t="s">
+      <c r="D52" s="50"/>
+      <c r="E52" s="43"/>
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="49"/>
+      <c r="B53" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>190</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="52" t="s">
+      <c r="D53" s="50"/>
+      <c r="E53" s="43"/>
+      <c r="F53" s="43"/>
+    </row>
+    <row r="54" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="49"/>
+      <c r="B54" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="D54" s="50"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+    </row>
+    <row r="55" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
+      <c r="B55" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D55" s="50"/>
+      <c r="E55" s="43"/>
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
+      <c r="B56" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" s="54" t="s">
+      <c r="D56" s="50"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+    </row>
+    <row r="57" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
+      <c r="B57" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C22" s="54" t="s">
+      <c r="D57" s="50"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+    </row>
+    <row r="58" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="49"/>
+      <c r="B58" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="54" t="s">
+      <c r="D58" s="50"/>
+      <c r="E58" s="43"/>
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="49"/>
+      <c r="B59" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="54"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-    </row>
-    <row r="25" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32" t="s">
-        <v>152</v>
-      </c>
-      <c r="C25" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-    </row>
-    <row r="26" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32" t="s">
-        <v>153</v>
-      </c>
-      <c r="C26" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-    </row>
-    <row r="27" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="53"/>
-      <c r="B27" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="C27" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-    </row>
-    <row r="28" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="53"/>
-      <c r="B28" s="32" t="s">
-        <v>155</v>
-      </c>
-      <c r="C28" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-    </row>
-    <row r="29" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
-      <c r="B29" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="54" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-    </row>
-    <row r="30" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="53"/>
-      <c r="B30" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>198</v>
-      </c>
-      <c r="D32" s="54"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="54" t="s">
-        <v>245</v>
-      </c>
-      <c r="D33" s="54"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="53"/>
-      <c r="B34" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="54"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-    </row>
-    <row r="35" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="53"/>
-      <c r="B35" s="47" t="s">
-        <v>150</v>
-      </c>
-      <c r="C35" s="54" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="54"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
-    </row>
-    <row r="36" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="53"/>
-      <c r="B36" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="C36" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-    </row>
-    <row r="37" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D37" s="54"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-    </row>
-    <row r="38" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C38" s="54" t="s">
-        <v>200</v>
-      </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-    </row>
-    <row r="39" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C39" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="54"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
-    </row>
-    <row r="40" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="54" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="54"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="47"/>
-    </row>
-    <row r="41" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="D41" s="54"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="47"/>
-    </row>
-    <row r="42" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="53"/>
-      <c r="B42" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-    </row>
-    <row r="43" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="53"/>
-      <c r="B43" s="32" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="54" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
-    </row>
-    <row r="44" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="53"/>
-      <c r="B44" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="54"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
-    </row>
-    <row r="45" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="53"/>
-      <c r="B45" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D45" s="54"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-    </row>
-    <row r="46" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="53"/>
-      <c r="B46" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>204</v>
-      </c>
-      <c r="D46" s="54"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="47"/>
-    </row>
-    <row r="47" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="54"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-    </row>
-    <row r="48" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>205</v>
-      </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="47"/>
-    </row>
-    <row r="49" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
-    </row>
-    <row r="50" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="54" t="s">
-        <v>207</v>
-      </c>
-      <c r="D50" s="54"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
-    </row>
-    <row r="51" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53"/>
-      <c r="B51" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="C51" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="54"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
-    </row>
-    <row r="52" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="53"/>
-      <c r="B52" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" s="54"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="47"/>
-    </row>
-    <row r="53" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="53"/>
-      <c r="B53" s="32" t="s">
+      <c r="D59" s="50"/>
+      <c r="E59" s="43"/>
+      <c r="F59" s="43"/>
+    </row>
+    <row r="60" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="49"/>
+      <c r="B60" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" s="54"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-    </row>
-    <row r="54" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53"/>
-      <c r="B54" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="54"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-    </row>
-    <row r="55" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="32" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="D55" s="54"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-    </row>
-    <row r="56" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="54" t="s">
-        <v>210</v>
-      </c>
-      <c r="D56" s="54"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-    </row>
-    <row r="57" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="54" t="s">
-        <v>211</v>
-      </c>
-      <c r="D57" s="54"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-    </row>
-    <row r="58" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53"/>
-      <c r="B58" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="D58" s="54"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-    </row>
-    <row r="59" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53"/>
-      <c r="B59" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>213</v>
-      </c>
-      <c r="D59" s="54"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-    </row>
-    <row r="60" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53"/>
-      <c r="B60" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="43"/>
+      <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="53"/>
-      <c r="B61" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="31"/>
-      <c r="B62" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
     </row>
     <row r="63" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="31"/>
-      <c r="B63" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="31"/>
-      <c r="B64" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="47"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
+      <c r="A64" s="27"/>
+      <c r="B64" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="31"/>
-      <c r="B65" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="43"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
     </row>
     <row r="66" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="31"/>
-      <c r="B66" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
+      <c r="A66" s="27"/>
+      <c r="B66" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="43"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Docs/AudioDuration.xlsx
+++ b/Docs/AudioDuration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDev\Unity\ACASH\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B829F16B-7273-43F3-88F5-51ED75DEA02C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF613D6-61F2-4BB4-8D75-50C7CA696743}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10200" yWindow="3660" windowWidth="13365" windowHeight="8760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="4590" windowWidth="13365" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Script" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="232">
   <si>
     <t>Объяснение фраз</t>
   </si>
@@ -40,16 +40,10 @@
     <t>ru</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>Key Word</t>
   </si>
   <si>
     <t>Russian</t>
-  </si>
-  <si>
-    <t>English</t>
   </si>
   <si>
     <t>Teacher_Shout_0</t>
@@ -1963,8 +1957,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1980,56 +1972,62 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2322,8 +2320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="108" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2332,7 +2330,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2341,804 +2339,797 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63"/>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="65"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="C4" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="37"/>
+    </row>
+    <row r="6" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="65"/>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="20"/>
+    </row>
+    <row r="7" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="65"/>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="20"/>
+    </row>
+    <row r="9" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="65"/>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="65"/>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="65"/>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66"/>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="68"/>
+      <c r="B14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="68"/>
+      <c r="B15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="68"/>
+      <c r="B16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17" s="51"/>
+    </row>
+    <row r="18" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="46"/>
+    </row>
+    <row r="19" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="71"/>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="37"/>
+    </row>
+    <row r="20" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="71"/>
+      <c r="B20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="20"/>
+    </row>
+    <row r="21" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="71"/>
+      <c r="B21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D21" s="20"/>
+    </row>
+    <row r="22" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="72"/>
+      <c r="B22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="48"/>
+    </row>
+    <row r="23" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="74"/>
+      <c r="B24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="25" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="74"/>
+      <c r="B25" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="42"/>
+    </row>
+    <row r="26" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="75"/>
+      <c r="B26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="57"/>
+    </row>
+    <row r="27" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="60"/>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="37"/>
+    </row>
+    <row r="29" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="60"/>
+      <c r="B29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D29" s="37"/>
+    </row>
+    <row r="30" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="61"/>
+      <c r="B30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="74"/>
+      <c r="B32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="75"/>
+      <c r="B33" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="57"/>
+    </row>
+    <row r="34" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="60"/>
+      <c r="B35" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="37"/>
+    </row>
+    <row r="36" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="61"/>
+      <c r="B36" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="41"/>
+    </row>
+    <row r="38" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="74"/>
+      <c r="B38" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="53" t="s">
+        <v>219</v>
+      </c>
+      <c r="D38" s="42"/>
+    </row>
+    <row r="39" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="74"/>
+      <c r="B39" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="53" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="42"/>
+    </row>
+    <row r="40" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="74"/>
+      <c r="B40" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="42"/>
+    </row>
+    <row r="41" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="74"/>
+      <c r="B41" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>222</v>
+      </c>
+      <c r="D41" s="57"/>
+    </row>
+    <row r="42" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D42" s="34"/>
+    </row>
+    <row r="43" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="60"/>
+      <c r="B43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="D43" s="37"/>
+    </row>
+    <row r="44" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="60"/>
+      <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="37"/>
+    </row>
+    <row r="45" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="60"/>
+      <c r="B45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="D45" s="37"/>
+    </row>
+    <row r="46" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="61"/>
+      <c r="B46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="54" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="74"/>
+      <c r="B48" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="74"/>
+      <c r="B49" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="16"/>
+    </row>
+    <row r="50" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="74"/>
+      <c r="B50" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="D50" s="18"/>
+    </row>
+    <row r="51" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="19"/>
+    </row>
+    <row r="52" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="60"/>
+      <c r="B52" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D52" s="20"/>
+    </row>
+    <row r="53" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="60"/>
+      <c r="B53" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="20"/>
+    </row>
+    <row r="54" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="61"/>
+      <c r="B54" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="21"/>
+    </row>
+    <row r="55" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="74"/>
+      <c r="B56" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C56" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
-      <c r="B7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
-      <c r="B8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="D56" s="42"/>
+    </row>
+    <row r="57" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="74"/>
+      <c r="B57" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
-      <c r="B9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="20"/>
-    </row>
-    <row r="11" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="21"/>
-    </row>
-    <row r="13" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
-      <c r="B14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="D57" s="18"/>
+    </row>
+    <row r="58" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="34"/>
+    </row>
+    <row r="59" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="60"/>
+      <c r="B59" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="16"/>
-    </row>
-    <row r="15" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
-      <c r="B15" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="16"/>
-    </row>
-    <row r="16" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
-      <c r="B16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="16"/>
-    </row>
-    <row r="17" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="51"/>
-    </row>
-    <row r="18" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="52"/>
-    </row>
-    <row r="19" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="74"/>
-      <c r="B19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="20"/>
-    </row>
-    <row r="20" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="74"/>
-      <c r="B20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="74"/>
-      <c r="B21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75"/>
-      <c r="B22" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D22" s="53"/>
-    </row>
-    <row r="23" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="63" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="59"/>
-      <c r="B24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="55" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="59"/>
-      <c r="B25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>214</v>
-      </c>
-      <c r="D26" s="18"/>
-    </row>
-    <row r="27" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="61"/>
-      <c r="B28" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>216</v>
-      </c>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="61"/>
-      <c r="B29" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>217</v>
-      </c>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
-      <c r="B30" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="D30" s="21"/>
-    </row>
-    <row r="31" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
-      <c r="B32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="19"/>
-    </row>
-    <row r="35" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>219</v>
-      </c>
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="62"/>
-      <c r="B36" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="D36" s="21"/>
-    </row>
-    <row r="37" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="59"/>
-      <c r="B38" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="D38" s="16"/>
-    </row>
-    <row r="39" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="59"/>
-      <c r="B39" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>222</v>
-      </c>
-      <c r="D39" s="16"/>
-    </row>
-    <row r="40" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="59"/>
-      <c r="B40" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="D40" s="16"/>
-    </row>
-    <row r="41" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59"/>
-      <c r="B41" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="57" t="s">
-        <v>224</v>
-      </c>
-      <c r="D41" s="18"/>
-    </row>
-    <row r="42" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="D42" s="19"/>
-    </row>
-    <row r="43" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="61"/>
-      <c r="B43" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="61"/>
-      <c r="B44" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="61"/>
-      <c r="B45" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="62"/>
-      <c r="B46" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="39" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="21"/>
-    </row>
-    <row r="47" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>227</v>
-      </c>
-      <c r="D47" s="23"/>
-    </row>
-    <row r="48" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="59"/>
-      <c r="B48" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>228</v>
-      </c>
-      <c r="D48" s="16"/>
-    </row>
-    <row r="49" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="59"/>
-      <c r="B49" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59"/>
-      <c r="B50" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="57" t="s">
+      <c r="D59" s="20"/>
+    </row>
+    <row r="60" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="61"/>
+      <c r="B60" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="60" t="s">
-        <v>21</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="19"/>
-    </row>
-    <row r="52" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="61"/>
-      <c r="B52" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="D52" s="20"/>
-    </row>
-    <row r="53" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="61"/>
-      <c r="B53" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D53" s="20"/>
-    </row>
-    <row r="54" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="62"/>
-      <c r="B54" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="21"/>
-    </row>
-    <row r="55" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D55" s="23"/>
-    </row>
-    <row r="56" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="59"/>
-      <c r="B56" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="16"/>
-    </row>
-    <row r="57" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59"/>
-      <c r="B57" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="57" t="s">
-        <v>148</v>
-      </c>
-      <c r="D57" s="18"/>
-    </row>
-    <row r="58" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="D58" s="19"/>
-    </row>
-    <row r="59" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="61"/>
-      <c r="B59" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="20"/>
-    </row>
-    <row r="60" spans="1:4" ht="108" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="62"/>
-      <c r="B60" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="D60" s="21"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="58" t="s">
-        <v>199</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C61" s="56" t="s">
+        <v>197</v>
+      </c>
+      <c r="D61" s="58"/>
     </row>
     <row r="62" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="58" t="s">
-        <v>232</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="58"/>
     </row>
     <row r="63" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="58" t="s">
-        <v>200</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C63" s="56" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="58"/>
     </row>
     <row r="64" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C64" s="58" t="s">
-        <v>155</v>
+        <v>64</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C65" s="58" t="s">
-        <v>198</v>
+        <v>65</v>
+      </c>
+      <c r="C65" s="56" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C66" s="58" t="s">
-        <v>201</v>
+        <v>66</v>
+      </c>
+      <c r="C66" s="56" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" s="58" t="s">
-        <v>148</v>
+        <v>67</v>
+      </c>
+      <c r="C67" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="58" t="s">
-        <v>158</v>
+        <v>68</v>
+      </c>
+      <c r="C68" s="56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C69" s="58" t="s">
-        <v>148</v>
+        <v>69</v>
+      </c>
+      <c r="C69" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C70" s="58" t="s">
-        <v>158</v>
+        <v>70</v>
+      </c>
+      <c r="C70" s="56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" s="58" t="s">
-        <v>148</v>
+        <v>71</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C72" s="58" t="s">
-        <v>158</v>
+        <v>72</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="58" t="s">
-        <v>148</v>
+        <v>73</v>
+      </c>
+      <c r="C73" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C74" s="58" t="s">
-        <v>202</v>
+        <v>74</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C75" s="58" t="s">
-        <v>148</v>
+        <v>75</v>
+      </c>
+      <c r="C75" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="58" t="s">
-        <v>202</v>
+        <v>76</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="58" t="s">
-        <v>148</v>
+        <v>77</v>
+      </c>
+      <c r="C77" s="56" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C78" s="58" t="s">
-        <v>202</v>
+        <v>78</v>
+      </c>
+      <c r="C78" s="56" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" s="58" t="s">
-        <v>206</v>
+        <v>79</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" s="58" t="s">
-        <v>203</v>
+        <v>80</v>
+      </c>
+      <c r="C80" s="56" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C81" s="58" t="s">
-        <v>204</v>
+        <v>81</v>
+      </c>
+      <c r="C81" s="56" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A55:A57"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A31:A33"/>
@@ -3147,6 +3138,12 @@
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="A47:A50"/>
     <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3158,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B337C269-D4D7-4E60-AAF5-1C8ABFB41559}">
   <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="203.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3168,8 +3165,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
-        <v>60</v>
+      <c r="A1" s="62" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3177,68 +3174,64 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="L1" s="29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M1" s="30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="O1" s="30" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q1" s="30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R1" s="31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="S1" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T1" s="31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="U1" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="V1" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X1" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
+      <c r="A2" s="63"/>
       <c r="B2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="27"/>
       <c r="F2" s="27"/>
       <c r="G2" s="27"/>
       <c r="L2" s="76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M2" s="77"/>
       <c r="N2" s="77"/>
@@ -3254,14 +3247,14 @@
       <c r="X2" s="78"/>
     </row>
     <row r="3" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
-        <v>61</v>
+      <c r="A3" s="64" t="s">
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="35"/>
@@ -3269,153 +3262,153 @@
       <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="68"/>
+      <c r="A4" s="65"/>
       <c r="B4" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="38"/>
       <c r="F4" s="38"/>
     </row>
     <row r="5" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="38"/>
       <c r="F6" s="38"/>
     </row>
     <row r="7" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
       <c r="F7" s="38"/>
     </row>
     <row r="8" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="68"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
     </row>
     <row r="9" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="68"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
     </row>
     <row r="10" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="38"/>
       <c r="F10" s="38"/>
     </row>
     <row r="11" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
     </row>
     <row r="12" spans="1:24" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D12" s="40"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="70"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D13" s="41"/>
       <c r="E13" s="38"/>
       <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="43"/>
       <c r="F14" s="43"/>
     </row>
     <row r="15" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="43"/>
       <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:24" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="71"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -3423,9 +3416,9 @@
       <c r="F16" s="43"/>
     </row>
     <row r="17" spans="1:6" ht="203.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
+      <c r="A17" s="69"/>
       <c r="B17" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
@@ -3435,10 +3428,10 @@
     <row r="18" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="45"/>
       <c r="B18" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" s="46"/>
       <c r="E18" s="43"/>
@@ -3447,10 +3440,10 @@
     <row r="19" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="47"/>
       <c r="B19" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="43"/>
@@ -3459,10 +3452,10 @@
     <row r="20" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="47"/>
       <c r="B20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="43"/>
@@ -3471,10 +3464,10 @@
     <row r="21" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="49"/>
       <c r="B21" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="43"/>
@@ -3483,10 +3476,10 @@
     <row r="22" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="49"/>
       <c r="B22" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D22" s="50"/>
       <c r="E22" s="43"/>
@@ -3495,10 +3488,10 @@
     <row r="23" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D23" s="50"/>
       <c r="E23" s="43"/>
@@ -3507,10 +3500,10 @@
     <row r="24" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="43"/>
@@ -3519,10 +3512,10 @@
     <row r="25" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="43"/>
@@ -3531,10 +3524,10 @@
     <row r="26" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="43"/>
@@ -3543,10 +3536,10 @@
     <row r="27" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="49"/>
       <c r="B27" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D27" s="50"/>
       <c r="E27" s="43"/>
@@ -3555,10 +3548,10 @@
     <row r="28" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
       <c r="B28" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D28" s="50"/>
       <c r="E28" s="43"/>
@@ -3567,10 +3560,10 @@
     <row r="29" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="49"/>
       <c r="B29" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D29" s="50"/>
       <c r="E29" s="43"/>
@@ -3579,10 +3572,10 @@
     <row r="30" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="49"/>
       <c r="B30" s="28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="43"/>
@@ -3591,10 +3584,10 @@
     <row r="31" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D31" s="50"/>
       <c r="E31" s="43"/>
@@ -3603,10 +3596,10 @@
     <row r="32" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D32" s="50"/>
       <c r="E32" s="43"/>
@@ -3615,10 +3608,10 @@
     <row r="33" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="43"/>
@@ -3627,10 +3620,10 @@
     <row r="34" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
       <c r="B34" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D34" s="50"/>
       <c r="E34" s="43"/>
@@ -3639,10 +3632,10 @@
     <row r="35" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="49"/>
       <c r="B35" s="43" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="50"/>
       <c r="E35" s="43"/>
@@ -3651,10 +3644,10 @@
     <row r="36" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="49"/>
       <c r="B36" s="43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D36" s="50"/>
       <c r="E36" s="43"/>
@@ -3663,10 +3656,10 @@
     <row r="37" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="28" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="43"/>
@@ -3675,10 +3668,10 @@
     <row r="38" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D38" s="50"/>
       <c r="E38" s="43"/>
@@ -3687,10 +3680,10 @@
     <row r="39" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="43"/>
@@ -3699,10 +3692,10 @@
     <row r="40" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="43"/>
@@ -3711,10 +3704,10 @@
     <row r="41" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="43"/>
@@ -3723,10 +3716,10 @@
     <row r="42" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="49"/>
       <c r="B42" s="28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D42" s="50"/>
       <c r="E42" s="43"/>
@@ -3735,10 +3728,10 @@
     <row r="43" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="49"/>
       <c r="B43" s="28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D43" s="50"/>
       <c r="E43" s="43"/>
@@ -3747,10 +3740,10 @@
     <row r="44" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="49"/>
       <c r="B44" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D44" s="50"/>
       <c r="E44" s="43"/>
@@ -3759,10 +3752,10 @@
     <row r="45" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="49"/>
       <c r="B45" s="28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D45" s="50"/>
       <c r="E45" s="43"/>
@@ -3771,10 +3764,10 @@
     <row r="46" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="49"/>
       <c r="B46" s="28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="43"/>
@@ -3783,10 +3776,10 @@
     <row r="47" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="43"/>
@@ -3795,10 +3788,10 @@
     <row r="48" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D48" s="50"/>
       <c r="E48" s="43"/>
@@ -3807,10 +3800,10 @@
     <row r="49" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="43"/>
@@ -3819,10 +3812,10 @@
     <row r="50" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D50" s="50"/>
       <c r="E50" s="43"/>
@@ -3831,10 +3824,10 @@
     <row r="51" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="49"/>
       <c r="B51" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D51" s="50"/>
       <c r="E51" s="43"/>
@@ -3843,10 +3836,10 @@
     <row r="52" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="49"/>
       <c r="B52" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="43"/>
@@ -3855,10 +3848,10 @@
     <row r="53" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="49"/>
       <c r="B53" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="43"/>
@@ -3867,10 +3860,10 @@
     <row r="54" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="49"/>
       <c r="B54" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="43"/>
@@ -3879,10 +3872,10 @@
     <row r="55" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="43"/>
@@ -3891,10 +3884,10 @@
     <row r="56" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="43"/>
@@ -3903,10 +3896,10 @@
     <row r="57" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="43"/>
@@ -3915,10 +3908,10 @@
     <row r="58" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="49"/>
       <c r="B58" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="43"/>
@@ -3927,10 +3920,10 @@
     <row r="59" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="49"/>
       <c r="B59" s="43" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="43"/>
@@ -3939,7 +3932,7 @@
     <row r="60" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="49"/>
       <c r="B60" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C60" s="50"/>
       <c r="D60" s="50"/>
@@ -3949,7 +3942,7 @@
     <row r="61" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="49"/>
       <c r="B61" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C61" s="43"/>
       <c r="D61" s="43"/>
@@ -3959,7 +3952,7 @@
     <row r="62" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
@@ -3969,7 +3962,7 @@
     <row r="63" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C63" s="43"/>
       <c r="D63" s="43"/>
@@ -3979,7 +3972,7 @@
     <row r="64" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C64" s="43"/>
       <c r="D64" s="43"/>
@@ -3989,7 +3982,7 @@
     <row r="65" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="43"/>
       <c r="D65" s="43"/>
@@ -3999,7 +3992,7 @@
     <row r="66" spans="1:6" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
